--- a/data/processed/ir_instructions_with_cell_deps.xlsx
+++ b/data/processed/ir_instructions_with_cell_deps.xlsx
@@ -467,10 +467,9 @@
           <t>define</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D2">
+        <f>define(  )</f>
+        <v/>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,10 +496,9 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>%3</t>
-        </is>
+      <c r="D3">
+        <f>tail(  )</f>
+        <v/>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -527,14 +525,13 @@
           <t>trunc</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>%4</t>
-        </is>
+      <c r="D4">
+        <f>TRUNCATE(D3)</f>
+        <v/>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>%3</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -557,10 +554,9 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>%5</t>
-        </is>
+      <c r="D5">
+        <f>tail(  )</f>
+        <v/>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -587,14 +583,13 @@
           <t>trunc</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>%6</t>
-        </is>
+      <c r="D6">
+        <f>TRUNCATE(D5)</f>
+        <v/>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>%5</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -617,10 +612,9 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>%7</t>
-        </is>
+      <c r="D7">
+        <f>tail(  )</f>
+        <v/>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -647,14 +641,13 @@
           <t>trunc</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>%8</t>
-        </is>
+      <c r="D8">
+        <f>TRUNCATE(D7)</f>
+        <v/>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>%7</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -678,17 +671,17 @@
         </is>
       </c>
       <c r="D9">
-        <f>E9*F9</f>
+        <f>%8 * D6</f>
         <v/>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>%8,</t>
+          <t>%8</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>%6</t>
+          <t>D6</t>
         </is>
       </c>
     </row>
@@ -706,19 +699,18 @@
           <t>add</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>%10</t>
-        </is>
+      <c r="D10">
+        <f>%9 + D4</f>
+        <v/>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>%9,</t>
+          <t>%9</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>%4</t>
+          <t>D4</t>
         </is>
       </c>
     </row>
@@ -736,14 +728,13 @@
           <t>icmp</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>%11</t>
-        </is>
+      <c r="D11">
+        <f>IF(%4 =  TRUE FALSE)</f>
+        <v/>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>%4,</t>
+          <t>%4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -766,19 +757,18 @@
           <t>br</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D12">
+        <f>BRANCH(%11)</f>
+        <v/>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>%11,</t>
+          <t>%11</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>%87,</t>
+          <t>%87</t>
         </is>
       </c>
     </row>
@@ -796,10 +786,9 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>%13</t>
-        </is>
+      <c r="D13">
+        <f>tail(  )</f>
+        <v/>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -826,14 +815,13 @@
           <t>trunc</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>%14</t>
-        </is>
+      <c r="D14">
+        <f>TRUNCATE(D13)</f>
+        <v/>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>%13</t>
+          <t>D13</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -856,14 +844,13 @@
           <t>add</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>%15</t>
-        </is>
+      <c r="D15">
+        <f>%8 + </f>
+        <v/>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>%8,</t>
+          <t>%8</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -886,19 +873,18 @@
           <t>icmp</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>%16</t>
-        </is>
+      <c r="D16">
+        <f>IF(%15 = D4 TRUE FALSE)</f>
+        <v/>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>%15,</t>
+          <t>%15</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>%4</t>
+          <t>D4</t>
         </is>
       </c>
     </row>
@@ -916,14 +902,13 @@
           <t>icmp</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>%17</t>
-        </is>
+      <c r="D17">
+        <f>IF(%6 =  TRUE FALSE)</f>
+        <v/>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>%6,</t>
+          <t>%6</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -946,19 +931,18 @@
           <t>and</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>%18</t>
-        </is>
+      <c r="D18">
+        <f>%17 AND D16</f>
+        <v/>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>%17,</t>
+          <t>%17</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>%16</t>
+          <t>D16</t>
         </is>
       </c>
     </row>
@@ -976,14 +960,13 @@
           <t>add</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>%19</t>
-        </is>
+      <c r="D19">
+        <f>%14 + </f>
+        <v/>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>%14,</t>
+          <t>%14</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1006,19 +989,18 @@
           <t>icmp</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>%20</t>
-        </is>
+      <c r="D20">
+        <f>IF(%19 = D6 TRUE FALSE)</f>
+        <v/>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>%19,</t>
+          <t>%19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>%6</t>
+          <t>D6</t>
         </is>
       </c>
     </row>
@@ -1036,19 +1018,18 @@
           <t>and</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>%21</t>
-        </is>
+      <c r="D21">
+        <f>%18 AND D20</f>
+        <v/>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>%18,</t>
+          <t>%18</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>%20</t>
+          <t>D20</t>
         </is>
       </c>
     </row>
@@ -1066,19 +1047,18 @@
           <t>br</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D22">
+        <f>BRANCH(%21)</f>
+        <v/>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>%21,</t>
+          <t>%21</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>%22,</t>
+          <t>%22</t>
         </is>
       </c>
     </row>
@@ -1096,14 +1076,13 @@
           <t>add</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>%23</t>
-        </is>
+      <c r="D23">
+        <f>%10 + </f>
+        <v/>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>%10,</t>
+          <t>%10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1126,19 +1105,18 @@
           <t>sub</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>%24</t>
-        </is>
+      <c r="D24">
+        <f>%23 - D8</f>
+        <v/>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>%23,</t>
+          <t>%23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>%8</t>
+          <t>D8</t>
         </is>
       </c>
     </row>
@@ -1156,14 +1134,13 @@
           <t>zext</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>%25</t>
-        </is>
+      <c r="D25">
+        <f>ZERO_EXTEND(D24)</f>
+        <v/>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>%24</t>
+          <t>D24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1186,19 +1163,18 @@
           <t>getelementptr</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>%26</t>
-        </is>
+      <c r="D26">
+        <f>getelementptr(%0 D25 )</f>
+        <v/>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>%0,</t>
+          <t>%0</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>%25</t>
+          <t>D25</t>
         </is>
       </c>
     </row>
@@ -1216,14 +1192,13 @@
           <t>bitcast</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>%27</t>
-        </is>
+      <c r="D27">
+        <f>BITCAST(D26)</f>
+        <v/>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>%26</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1246,14 +1221,13 @@
           <t>load</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>%28</t>
-        </is>
+      <c r="D28">
+        <f>LOAD(%27)</f>
+        <v/>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>%27,</t>
+          <t>%27</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1276,10 +1250,9 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>%29</t>
-        </is>
+      <c r="D29">
+        <f>tail(%28)  )</f>
+        <v/>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1306,19 +1279,18 @@
           <t>sub</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>%30</t>
-        </is>
+      <c r="D30">
+        <f>%10 - D8</f>
+        <v/>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>%10,</t>
+          <t>%10</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>%8</t>
+          <t>D8</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1308,13 @@
           <t>zext</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>%31</t>
-        </is>
+      <c r="D31">
+        <f>ZERO_EXTEND(D30)</f>
+        <v/>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>%30</t>
+          <t>D30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1366,19 +1337,18 @@
           <t>getelementptr</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>%32</t>
-        </is>
+      <c r="D32">
+        <f>getelementptr(%0 D31 )</f>
+        <v/>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>%0,</t>
+          <t>%0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>%31</t>
+          <t>D31</t>
         </is>
       </c>
     </row>
@@ -1396,14 +1366,13 @@
           <t>bitcast</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>%33</t>
-        </is>
+      <c r="D33">
+        <f>BITCAST(D32)</f>
+        <v/>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>%32</t>
+          <t>D32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1426,14 +1395,13 @@
           <t>load</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>%34</t>
-        </is>
+      <c r="D34">
+        <f>LOAD(%33)</f>
+        <v/>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>%33,</t>
+          <t>%33</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1456,10 +1424,9 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>%35</t>
-        </is>
+      <c r="D35">
+        <f>tail(%34)  )</f>
+        <v/>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1486,14 +1453,13 @@
           <t>add</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>%36</t>
-        </is>
+      <c r="D36">
+        <f>%10 + </f>
+        <v/>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>%10,</t>
+          <t>%10</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1516,19 +1482,18 @@
           <t>sub</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>%37</t>
-        </is>
+      <c r="D37">
+        <f>%36 - D8</f>
+        <v/>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>%36,</t>
+          <t>%36</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>%8</t>
+          <t>D8</t>
         </is>
       </c>
     </row>
@@ -1546,14 +1511,13 @@
           <t>zext</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>%38</t>
-        </is>
+      <c r="D38">
+        <f>ZERO_EXTEND(D37)</f>
+        <v/>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>%37</t>
+          <t>D37</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1576,19 +1540,18 @@
           <t>getelementptr</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>%39</t>
-        </is>
+      <c r="D39">
+        <f>getelementptr(%0 D38 )</f>
+        <v/>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>%0,</t>
+          <t>%0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>%38</t>
+          <t>D38</t>
         </is>
       </c>
     </row>
@@ -1606,14 +1569,13 @@
           <t>bitcast</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>%40</t>
-        </is>
+      <c r="D40">
+        <f>BITCAST(D39)</f>
+        <v/>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>%39</t>
+          <t>D39</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1636,14 +1598,13 @@
           <t>load</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>%41</t>
-        </is>
+      <c r="D41">
+        <f>LOAD(%40)</f>
+        <v/>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>%40,</t>
+          <t>%40</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1666,10 +1627,9 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>%42</t>
-        </is>
+      <c r="D42">
+        <f>tail(%41)  )</f>
+        <v/>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1696,14 +1656,13 @@
           <t>sext</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>%43</t>
-        </is>
+      <c r="D43">
+        <f>SIGN_EXTEND(D23)</f>
+        <v/>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>%23</t>
+          <t>D23</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1726,19 +1685,18 @@
           <t>getelementptr</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>%44</t>
-        </is>
+      <c r="D44">
+        <f>getelementptr(%0 D43 )</f>
+        <v/>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>%0,</t>
+          <t>%0</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>%43</t>
+          <t>D43</t>
         </is>
       </c>
     </row>
@@ -1756,14 +1714,13 @@
           <t>bitcast</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>%45</t>
-        </is>
+      <c r="D45">
+        <f>BITCAST(D44)</f>
+        <v/>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>%44</t>
+          <t>D44</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1786,14 +1743,13 @@
           <t>load</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>%46</t>
-        </is>
+      <c r="D46">
+        <f>LOAD(%45)</f>
+        <v/>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>%45,</t>
+          <t>%45</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1816,10 +1772,9 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>%47</t>
-        </is>
+      <c r="D47">
+        <f>tail(%46)  )</f>
+        <v/>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1846,14 +1801,13 @@
           <t>sext</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>%48</t>
-        </is>
+      <c r="D48">
+        <f>SIGN_EXTEND(D10)</f>
+        <v/>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>%10</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1876,14 +1830,13 @@
           <t>sext</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>%49</t>
-        </is>
+      <c r="D49">
+        <f>SIGN_EXTEND(D36)</f>
+        <v/>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>%36</t>
+          <t>D36</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1906,19 +1859,18 @@
           <t>getelementptr</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>%50</t>
-        </is>
+      <c r="D50">
+        <f>getelementptr(%0 D49 )</f>
+        <v/>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>%0,</t>
+          <t>%0</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>%49</t>
+          <t>D49</t>
         </is>
       </c>
     </row>
@@ -1936,14 +1888,13 @@
           <t>bitcast</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>%51</t>
-        </is>
+      <c r="D51">
+        <f>BITCAST(D50)</f>
+        <v/>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>%50</t>
+          <t>D50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -1966,14 +1917,13 @@
           <t>load</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>%52</t>
-        </is>
+      <c r="D52">
+        <f>LOAD(%51)</f>
+        <v/>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>%51,</t>
+          <t>%51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -1996,10 +1946,9 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>%53</t>
-        </is>
+      <c r="D53">
+        <f>tail(%52)  )</f>
+        <v/>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2026,19 +1975,18 @@
           <t>add</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>%54</t>
-        </is>
+      <c r="D54">
+        <f>%23 + D8</f>
+        <v/>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>%23,</t>
+          <t>%23</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>%8</t>
+          <t>D8</t>
         </is>
       </c>
     </row>
@@ -2056,14 +2004,13 @@
           <t>zext</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>%55</t>
-        </is>
+      <c r="D55">
+        <f>ZERO_EXTEND(D54)</f>
+        <v/>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>%54</t>
+          <t>D54</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2086,19 +2033,18 @@
           <t>getelementptr</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>%56</t>
-        </is>
+      <c r="D56">
+        <f>getelementptr(%0 D55 )</f>
+        <v/>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>%0,</t>
+          <t>%0</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>%55</t>
+          <t>D55</t>
         </is>
       </c>
     </row>
@@ -2116,14 +2062,13 @@
           <t>bitcast</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>%57</t>
-        </is>
+      <c r="D57">
+        <f>BITCAST(D56)</f>
+        <v/>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>%56</t>
+          <t>D56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2146,14 +2091,13 @@
           <t>load</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>%58</t>
-        </is>
+      <c r="D58">
+        <f>LOAD(%57)</f>
+        <v/>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>%57,</t>
+          <t>%57</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2176,10 +2120,9 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>%59</t>
-        </is>
+      <c r="D59">
+        <f>tail(%58)  )</f>
+        <v/>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2206,19 +2149,18 @@
           <t>add</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>%60</t>
-        </is>
+      <c r="D60">
+        <f>%10 + D8</f>
+        <v/>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>%10,</t>
+          <t>%10</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>%8</t>
+          <t>D8</t>
         </is>
       </c>
     </row>
@@ -2236,14 +2178,13 @@
           <t>zext</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>%61</t>
-        </is>
+      <c r="D61">
+        <f>ZERO_EXTEND(D60)</f>
+        <v/>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>%60</t>
+          <t>D60</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2266,19 +2207,18 @@
           <t>getelementptr</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>%62</t>
-        </is>
+      <c r="D62">
+        <f>getelementptr(%0 D61 )</f>
+        <v/>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>%0,</t>
+          <t>%0</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>%61</t>
+          <t>D61</t>
         </is>
       </c>
     </row>
@@ -2296,14 +2236,13 @@
           <t>bitcast</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>%63</t>
-        </is>
+      <c r="D63">
+        <f>BITCAST(D62)</f>
+        <v/>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>%62</t>
+          <t>D62</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2326,14 +2265,13 @@
           <t>load</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>%64</t>
-        </is>
+      <c r="D64">
+        <f>LOAD(%63)</f>
+        <v/>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>%63,</t>
+          <t>%63</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2356,10 +2294,9 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>%65</t>
-        </is>
+      <c r="D65">
+        <f>tail(%64)  )</f>
+        <v/>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2386,19 +2323,18 @@
           <t>add</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>%66</t>
-        </is>
+      <c r="D66">
+        <f>%36 + D8</f>
+        <v/>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>%36,</t>
+          <t>%36</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>%8</t>
+          <t>D8</t>
         </is>
       </c>
     </row>
@@ -2416,14 +2352,13 @@
           <t>zext</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>%67</t>
-        </is>
+      <c r="D67">
+        <f>ZERO_EXTEND(D66)</f>
+        <v/>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>%66</t>
+          <t>D66</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2446,19 +2381,18 @@
           <t>getelementptr</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>%68</t>
-        </is>
+      <c r="D68">
+        <f>getelementptr(%0 D67 )</f>
+        <v/>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>%0,</t>
+          <t>%0</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>%67</t>
+          <t>D67</t>
         </is>
       </c>
     </row>
@@ -2476,14 +2410,13 @@
           <t>bitcast</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>%69</t>
-        </is>
+      <c r="D69">
+        <f>BITCAST(D68)</f>
+        <v/>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>%68</t>
+          <t>D68</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2506,14 +2439,13 @@
           <t>load</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>%70</t>
-        </is>
+      <c r="D70">
+        <f>LOAD(%69)</f>
+        <v/>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>%69,</t>
+          <t>%69</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2536,10 +2468,9 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>%71</t>
-        </is>
+      <c r="D71">
+        <f>tail(%70)  )</f>
+        <v/>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2566,14 +2497,13 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>%72</t>
-        </is>
+      <c r="D72">
+        <f>tail(%35 %29) )</f>
+        <v/>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>%35,</t>
+          <t>%35</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2596,19 +2526,18 @@
           <t>fadd</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>%73</t>
-        </is>
+      <c r="D73">
+        <f>%72 + D42</f>
+        <v/>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>%72,</t>
+          <t>%72</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>%42</t>
+          <t>D42</t>
         </is>
       </c>
     </row>
@@ -2626,19 +2555,18 @@
           <t>fsub</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>%74</t>
-        </is>
+      <c r="D74">
+        <f>%73 - D59</f>
+        <v/>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>%73,</t>
+          <t>%73</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>%59</t>
+          <t>D59</t>
         </is>
       </c>
     </row>
@@ -2656,14 +2584,13 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>%75</t>
-        </is>
+      <c r="D75">
+        <f>tail(%65 %74) )</f>
+        <v/>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>%65,</t>
+          <t>%65</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2686,19 +2613,18 @@
           <t>fsub</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>%76</t>
-        </is>
+      <c r="D76">
+        <f>%75 - D71</f>
+        <v/>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>%75,</t>
+          <t>%75</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>%71</t>
+          <t>D71</t>
         </is>
       </c>
     </row>
@@ -2716,19 +2642,18 @@
           <t>fsub</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>%77</t>
-        </is>
+      <c r="D77">
+        <f>%29 - D42</f>
+        <v/>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>%29,</t>
+          <t>%29</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>%42</t>
+          <t>D42</t>
         </is>
       </c>
     </row>
@@ -2746,14 +2671,13 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>%78</t>
-        </is>
+      <c r="D78">
+        <f>tail(%47 %77) )</f>
+        <v/>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>%47,</t>
+          <t>%47</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2776,14 +2700,13 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>%79</t>
-        </is>
+      <c r="D79">
+        <f>tail(%53 %78) )</f>
+        <v/>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>%53,</t>
+          <t>%53</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2806,19 +2729,18 @@
           <t>fadd</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>%80</t>
-        </is>
+      <c r="D80">
+        <f>%79 + D59</f>
+        <v/>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>%79,</t>
+          <t>%79</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>%59</t>
+          <t>D59</t>
         </is>
       </c>
     </row>
@@ -2836,19 +2758,18 @@
           <t>fsub</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>%81</t>
-        </is>
+      <c r="D81">
+        <f>%80 - D71</f>
+        <v/>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>%80,</t>
+          <t>%80</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>%71</t>
+          <t>D71</t>
         </is>
       </c>
     </row>
@@ -2866,14 +2787,13 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>%82</t>
-        </is>
+      <c r="D82">
+        <f>tail(%76 %81) )</f>
+        <v/>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>%76,</t>
+          <t>%76</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2896,14 +2816,13 @@
           <t>fdiv</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>%83</t>
-        </is>
+      <c r="D83">
+        <f>%82 / </f>
+        <v/>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>%82,</t>
+          <t>%82</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -2926,10 +2845,9 @@
           <t>tail</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>%84</t>
-        </is>
+      <c r="D84">
+        <f>tail(%83)  )</f>
+        <v/>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2956,19 +2874,18 @@
           <t>getelementptr</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>%85</t>
-        </is>
+      <c r="D85">
+        <f>getelementptr(%1 D48 )</f>
+        <v/>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>%1,</t>
+          <t>%1</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>%48</t>
+          <t>D48</t>
         </is>
       </c>
     </row>
@@ -2986,14 +2903,13 @@
           <t>bitcast</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>%86</t>
-        </is>
+      <c r="D86">
+        <f>BITCAST(D85)</f>
+        <v/>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>%85</t>
+          <t>D85</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3016,19 +2932,18 @@
           <t>store</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D87">
+        <f>STORE(%84 %86)</f>
+        <v/>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>%84,</t>
+          <t>%84</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>%86,</t>
+          <t>%86</t>
         </is>
       </c>
     </row>
@@ -3046,10 +2961,9 @@
           <t>br</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D88">
+        <f>BRANCH(%87)</f>
+        <v/>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3076,10 +2990,9 @@
           <t>ret</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D89">
+        <f>RET()</f>
+        <v/>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3106,10 +3019,9 @@
           <t>}</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D90">
+        <f>}(  )</f>
+        <v/>
       </c>
       <c r="E90" t="inlineStr">
         <is>
